--- a/ArqComp/tabela quartil.xlsx
+++ b/ArqComp/tabela quartil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Grupo-11---1ADSB\ArqComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F395F1-260F-443A-9F27-148BB172E27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654C729-9482-4396-8C3A-AEBF516FAC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{C391B32E-FED7-4496-A1B2-12858CCFD007}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C391B32E-FED7-4496-A1B2-12858CCFD007}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Sensores</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Q1 - 0.25 * (10+1)</t>
   </si>
   <si>
-    <t>Q3 - 0.5(10+1)</t>
-  </si>
-  <si>
     <t>5,74</t>
   </si>
   <si>
@@ -112,6 +109,33 @@
   </si>
   <si>
     <t>Posicionamento para pegar a formula</t>
+  </si>
+  <si>
+    <t>Q = 25% * (N+1) = 0.25 * 10+1</t>
+  </si>
+  <si>
+    <t>1.1 - 0.46 = 0.64</t>
+  </si>
+  <si>
+    <t>0.64 - 100%</t>
+  </si>
+  <si>
+    <t>x - 75%</t>
+  </si>
+  <si>
+    <t>x = 0.48</t>
+  </si>
+  <si>
+    <t>Posição 2 = 0.46</t>
+  </si>
+  <si>
+    <t>posição 2 + posição 75% = 0.46 + 0.48 =0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>Q3 - 0.75(10+1)</t>
   </si>
 </sst>
 </file>
@@ -616,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06477F27-02C5-442B-9879-3BDFC33AA5E6}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="T32" sqref="G26:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>10</v>
       </c>
@@ -949,7 +973,7 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
@@ -957,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="7">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="G18">
         <v>0.46</v>
@@ -978,7 +1002,7 @@
         <v>5.7</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>6</v>
@@ -987,7 +1011,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
@@ -1006,27 +1030,27 @@
         <v>4.4349999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1"/>
       <c r="M20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
       <c r="J21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -1041,10 +1065,16 @@
         <f>SUM(G18:H18)/2</f>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0.04</v>
+      </c>
+      <c r="P23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1">
         <v>8.25</v>
@@ -1053,15 +1083,56 @@
         <f>SUM(M18:N18)/4</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="1"/>
+      <c r="J27">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ArqComp/tabela quartil.xlsx
+++ b/ArqComp/tabela quartil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Grupo-11---1ADSB\ArqComp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654C729-9482-4396-8C3A-AEBF516FAC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16D0D2-86A3-4C37-BB3B-0DBF69340F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C391B32E-FED7-4496-A1B2-12858CCFD007}"/>
+    <workbookView minimized="1" xWindow="6630" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{C391B32E-FED7-4496-A1B2-12858CCFD007}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Sensores</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Risco</t>
   </si>
   <si>
-    <t xml:space="preserve">4 a 6 </t>
-  </si>
-  <si>
     <t>Não pode passar</t>
   </si>
   <si>
@@ -136,6 +133,33 @@
   </si>
   <si>
     <t>Q3 - 0.75(10+1)</t>
+  </si>
+  <si>
+    <t>Quatil.inc = já inclui os valores maximo e minimo, que pode variar os valores</t>
+  </si>
+  <si>
+    <t>quartil.exc = Exclui os valores mínimos e maximos, que podem ser muito distintos dos valores que estão na tabela. Vai fechando que mais represente a amostra</t>
+  </si>
+  <si>
+    <t>podemos usar o INC pq os valores de 2 e 8 ainda estão inclusos com a nossa faixa de temperatura ideal</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>COLD</t>
+  </si>
+  <si>
+    <t>4 a 6</t>
   </si>
 </sst>
 </file>
@@ -281,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +341,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06477F27-02C5-442B-9879-3BDFC33AA5E6}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T32" sqref="G26:T32"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,24 +680,24 @@
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -704,11 +731,8 @@
       <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -725,11 +749,8 @@
         <f>MIN(B3:B12)</f>
         <v>0.32</v>
       </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.51041666666666663</v>
       </c>
@@ -746,18 +767,8 @@
         <f>_xlfn.QUARTILE.EXC(B3:B12,1)</f>
         <v>0.94000000000000017</v>
       </c>
-      <c r="N4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O4">
-        <v>2.1</v>
-      </c>
-      <c r="Q4">
-        <f>_xlfn.QUARTILE.EXC(O2:O11,1)</f>
-        <v>2.0750000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -774,15 +785,8 @@
         <f>MEDIAN(B3:B12)</f>
         <v>4.4349999999999996</v>
       </c>
-      <c r="O5">
-        <v>2.5</v>
-      </c>
-      <c r="Q5">
-        <f>_xlfn.QUARTILE.EXC(O2:O11,3)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.53125</v>
       </c>
@@ -799,15 +803,8 @@
         <f>AVERAGE(B3:B12)</f>
         <v>3.6710000000000007</v>
       </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <f>MEDIAN(O2:O11)</f>
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -824,14 +821,8 @@
         <f>_xlfn.QUARTILE.EXC(B3:B12,3)</f>
         <v>5.8049999999999997</v>
       </c>
-      <c r="N7">
-        <v>5.74</v>
-      </c>
-      <c r="O7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.55208333333333337</v>
       </c>
@@ -848,11 +839,8 @@
         <f>MAX(B3:B12)</f>
         <v>6.69</v>
       </c>
-      <c r="O8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.5625</v>
       </c>
@@ -863,11 +851,8 @@
         <v>6</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="O9">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.57291666666666663</v>
       </c>
@@ -878,14 +863,32 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="O10">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>6</v>
+      </c>
+      <c r="V10" s="4">
+        <v>7</v>
+      </c>
+      <c r="W10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -899,11 +902,27 @@
         <v>0.125</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="O11">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="4">
+        <f>_xlfn.QUARTILE.INC(Q10:W10,1)</f>
+        <v>3.5</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <f>_xlfn.QUARTILE.INC(Q10:W10,3)</f>
+        <v>6.5</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.59375</v>
       </c>
@@ -915,7 +934,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="19">
         <v>0.25</v>
       </c>
@@ -929,19 +948,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -949,16 +971,16 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>16</v>
-      </c>
-      <c r="M16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -968,10 +990,10 @@
       <c r="B17" s="14">
         <v>5</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -1002,7 +1024,7 @@
         <v>5.7</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>6</v>
@@ -1018,10 +1040,13 @@
       <c r="B19" s="12">
         <v>8</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="22"/>
+      <c r="C19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F19"/>
       <c r="J19" s="1" t="s">
         <v>6</v>
@@ -1032,31 +1057,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1"/>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="C23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
         <v>2.75</v>
@@ -1074,7 +1099,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1">
         <v>8.25</v>
@@ -1084,7 +1109,7 @@
         <v>1.5</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="19">
         <v>0.25</v>
@@ -1101,41 +1126,112 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27">
         <v>2.75</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="G29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="G30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="G32" t="s">
         <v>28</v>
       </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A28:D32"/>
+    <mergeCell ref="A33:D36"/>
+    <mergeCell ref="E33:H36"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C19:D19"/>
